--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:47:54+00:00</t>
+    <t>2025-12-25T09:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:53:19+00:00</t>
+    <t>2025-12-25T10:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:01:16+00:00</t>
+    <t>2025-12-25T10:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:09:41+00:00</t>
+    <t>2025-12-25T10:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:22:11+00:00</t>
+    <t>2025-12-25T10:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:31:12+00:00</t>
+    <t>2025-12-25T10:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:39:21+00:00</t>
+    <t>2025-12-25T10:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:44:58+00:00</t>
+    <t>2025-12-25T23:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T23:47:50+00:00</t>
+    <t>2025-12-26T00:02:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:02:21+00:00</t>
+    <t>2025-12-26T00:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:05:34+00:00</t>
+    <t>2025-12-26T00:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:13:32+00:00</t>
+    <t>2025-12-26T00:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:14:27+00:00</t>
+    <t>2025-12-26T00:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:35:52+00:00</t>
+    <t>2025-12-26T00:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:40:38+00:00</t>
+    <t>2025-12-26T00:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:44:33+00:00</t>
+    <t>2025-12-26T01:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:02:00+00:00</t>
+    <t>2025-12-26T01:05:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:05:32+00:00</t>
+    <t>2025-12-26T01:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:36:34+00:00</t>
+    <t>2025-12-26T01:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:59:09+00:00</t>
+    <t>2025-12-26T02:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T02:26:51+00:00</t>
+    <t>2025-12-26T10:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:04:19+00:00</t>
+    <t>2025-12-26T10:13:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:13:27+00:00</t>
+    <t>2025-12-26T10:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:16:19+00:00</t>
+    <t>2025-12-26T10:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:24:22+00:00</t>
+    <t>2025-12-26T10:42:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:42:17+00:00</t>
+    <t>2025-12-26T10:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:50:19+00:00</t>
+    <t>2025-12-26T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:20:10+00:00</t>
+    <t>2025-12-26T11:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:23:52+00:00</t>
+    <t>2025-12-26T11:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:26:31+00:00</t>
+    <t>2025-12-26T11:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:27:38+00:00</t>
+    <t>2025-12-26T11:28:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:28:30+00:00</t>
+    <t>2025-12-26T11:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:29:16+00:00</t>
+    <t>2025-12-26T11:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:01+00:00</t>
+    <t>2025-12-26T11:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:54+00:00</t>
+    <t>2025-12-26T11:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:31:25+00:00</t>
+    <t>2025-12-26T11:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:15+00:00</t>
+    <t>2025-12-26T11:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:54+00:00</t>
+    <t>2025-12-26T11:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:01+00:00</t>
+    <t>2025-12-26T11:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:23+00:00</t>
+    <t>2025-12-26T11:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:47+00:00</t>
+    <t>2025-12-26T11:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:36:15+00:00</t>
+    <t>2025-12-26T11:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:47:29+00:00</t>
+    <t>2025-12-26T12:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:00:12+00:00</t>
+    <t>2025-12-26T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:02:28+00:00</t>
+    <t>2025-12-26T12:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:06:48+00:00</t>
+    <t>2025-12-26T12:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:07:46+00:00</t>
+    <t>2025-12-26T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:14:29+00:00</t>
+    <t>2025-12-26T12:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:21:51+00:00</t>
+    <t>2025-12-26T14:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:28:37+00:00</t>
+    <t>2025-12-26T14:29:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:29:21+00:00</t>
+    <t>2025-12-26T14:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:36:57+00:00</t>
+    <t>2025-12-26T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:04+00:00</t>
+    <t>2025-12-26T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:51+00:00</t>
+    <t>2025-12-26T15:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:08:13+00:00</t>
+    <t>2026-01-01T16:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-monk-scale</t>
+    <t>https://opennursingcoreig.com/CodeSystem/onc-monk-scale</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -57,10 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:27:10+00:00</t>
+    <t>2026-01-02T23:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>The Open Nursing Community</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -390,84 +393,86 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -485,135 +490,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2"/>
     </row>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-onc-monk-scale.xlsx
+++ b/CodeSystem-onc-monk-scale.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
